--- a/Data Files/Function/GSD-231/Auto_GSD-231.xlsx
+++ b/Data Files/Function/GSD-231/Auto_GSD-231.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Function\GSD-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02F596-DD4E-4ABF-ADD3-ACFD03FA2AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E92C4-F72B-42F8-B068-FA1810889999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,13 +282,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
     <t>Auto_TC6_AT4ajhsyyg</t>
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>58</v>
@@ -908,7 +908,7 @@
         <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>61</v>
@@ -992,7 +992,7 @@
         <v>80</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>81</v>

--- a/Data Files/Function/GSD-231/Auto_GSD-231.xlsx
+++ b/Data Files/Function/GSD-231/Auto_GSD-231.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Function\GSD-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E92C4-F72B-42F8-B068-FA1810889999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B505C574-DFB8-49C2-9852-63E37C2E768B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
